--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf15-Tnfrsf25.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf15-Tnfrsf25.xlsx
@@ -543,40 +543,40 @@
         <v>1.205288</v>
       </c>
       <c r="I2">
-        <v>0.2702221345362258</v>
+        <v>0.3897772753026277</v>
       </c>
       <c r="J2">
-        <v>0.2702221345362258</v>
+        <v>0.3897772753026277</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.644859666666667</v>
+        <v>7.082880333333333</v>
       </c>
       <c r="N2">
-        <v>7.934579</v>
+        <v>21.248641</v>
       </c>
       <c r="O2">
-        <v>0.250317448389438</v>
+        <v>0.4363153076427043</v>
       </c>
       <c r="P2">
-        <v>0.250317448389438</v>
+        <v>0.4363153076427044</v>
       </c>
       <c r="Q2">
-        <v>1.062605872639111</v>
+        <v>2.845636890400888</v>
       </c>
       <c r="R2">
-        <v>9.563452853752</v>
+        <v>25.610732013608</v>
       </c>
       <c r="S2">
-        <v>0.06764131521545547</v>
+        <v>0.1700657917858011</v>
       </c>
       <c r="T2">
-        <v>0.06764131521545548</v>
+        <v>0.1700657917858011</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1.205288</v>
       </c>
       <c r="I3">
-        <v>0.2702221345362258</v>
+        <v>0.3897772753026277</v>
       </c>
       <c r="J3">
-        <v>0.2702221345362258</v>
+        <v>0.3897772753026277</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,10 +623,10 @@
         <v>2.202422</v>
       </c>
       <c r="O3">
-        <v>0.06948127371556359</v>
+        <v>0.04522408903652051</v>
       </c>
       <c r="P3">
-        <v>0.06948127371556359</v>
+        <v>0.04522408903652051</v>
       </c>
       <c r="Q3">
         <v>0.2949503119484445</v>
@@ -635,10 +635,10 @@
         <v>2.654552807536</v>
       </c>
       <c r="S3">
-        <v>0.01877537809371535</v>
+        <v>0.0176273222026984</v>
       </c>
       <c r="T3">
-        <v>0.01877537809371535</v>
+        <v>0.0176273222026984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>1.205288</v>
       </c>
       <c r="I4">
-        <v>0.2702221345362258</v>
+        <v>0.3897772753026277</v>
       </c>
       <c r="J4">
-        <v>0.2702221345362258</v>
+        <v>0.3897772753026277</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.047136333333333</v>
+        <v>7.805874333333333</v>
       </c>
       <c r="N4">
-        <v>21.141409</v>
+        <v>23.417623</v>
       </c>
       <c r="O4">
-        <v>0.666962110559048</v>
+        <v>0.4808527464653325</v>
       </c>
       <c r="P4">
-        <v>0.666962110559048</v>
+        <v>0.4808527464653325</v>
       </c>
       <c r="Q4">
-        <v>2.831276285643555</v>
+        <v>3.136108887824888</v>
       </c>
       <c r="R4">
-        <v>25.481486570792</v>
+        <v>28.224979990424</v>
       </c>
       <c r="S4">
-        <v>0.1802279251700522</v>
+        <v>0.1874254733390426</v>
       </c>
       <c r="T4">
-        <v>0.1802279251700522</v>
+        <v>0.1874254733390426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>1.205288</v>
       </c>
       <c r="I5">
-        <v>0.2702221345362258</v>
+        <v>0.3897772753026277</v>
       </c>
       <c r="J5">
-        <v>0.2702221345362258</v>
+        <v>0.3897772753026277</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1398853333333333</v>
+        <v>0.6105033333333334</v>
       </c>
       <c r="N5">
-        <v>0.419656</v>
+        <v>1.83151</v>
       </c>
       <c r="O5">
-        <v>0.0132391673359504</v>
+        <v>0.03760785685544264</v>
       </c>
       <c r="P5">
-        <v>0.0132391673359504</v>
+        <v>0.03760785685544264</v>
       </c>
       <c r="Q5">
-        <v>0.05620070454755555</v>
+        <v>0.2452774472088889</v>
       </c>
       <c r="R5">
-        <v>0.505806340928</v>
+        <v>2.20749702488</v>
       </c>
       <c r="S5">
-        <v>0.003577516057002795</v>
+        <v>0.01465868797508568</v>
       </c>
       <c r="T5">
-        <v>0.003577516057002795</v>
+        <v>0.01465868797508568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.085024</v>
+        <v>0.6289866666666667</v>
       </c>
       <c r="H6">
-        <v>3.255072</v>
+        <v>1.88696</v>
       </c>
       <c r="I6">
-        <v>0.7297778654637742</v>
+        <v>0.6102227246973723</v>
       </c>
       <c r="J6">
-        <v>0.7297778654637743</v>
+        <v>0.6102227246973724</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.644859666666667</v>
+        <v>7.082880333333333</v>
       </c>
       <c r="N6">
-        <v>7.934579</v>
+        <v>21.248641</v>
       </c>
       <c r="O6">
-        <v>0.250317448389438</v>
+        <v>0.4363153076427043</v>
       </c>
       <c r="P6">
-        <v>0.250317448389438</v>
+        <v>0.4363153076427044</v>
       </c>
       <c r="Q6">
-        <v>2.869736214965333</v>
+        <v>4.455037291262222</v>
       </c>
       <c r="R6">
-        <v>25.827625934688</v>
+        <v>40.09533562136</v>
       </c>
       <c r="S6">
-        <v>0.1826761331739825</v>
+        <v>0.2662495158569033</v>
       </c>
       <c r="T6">
-        <v>0.1826761331739826</v>
+        <v>0.2662495158569033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.085024</v>
+        <v>0.6289866666666667</v>
       </c>
       <c r="H7">
-        <v>3.255072</v>
+        <v>1.88696</v>
       </c>
       <c r="I7">
-        <v>0.7297778654637742</v>
+        <v>0.6102227246973723</v>
       </c>
       <c r="J7">
-        <v>0.7297778654637743</v>
+        <v>0.6102227246973724</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +871,22 @@
         <v>2.202422</v>
       </c>
       <c r="O7">
-        <v>0.06948127371556359</v>
+        <v>0.04522408903652051</v>
       </c>
       <c r="P7">
-        <v>0.06948127371556359</v>
+        <v>0.04522408903652051</v>
       </c>
       <c r="Q7">
-        <v>0.7965602427093333</v>
+        <v>0.4617646907911112</v>
       </c>
       <c r="R7">
-        <v>7.169042184384</v>
+        <v>4.155882217119999</v>
       </c>
       <c r="S7">
-        <v>0.05070589562184824</v>
+        <v>0.02759676683382211</v>
       </c>
       <c r="T7">
-        <v>0.05070589562184825</v>
+        <v>0.02759676683382211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.085024</v>
+        <v>0.6289866666666667</v>
       </c>
       <c r="H8">
-        <v>3.255072</v>
+        <v>1.88696</v>
       </c>
       <c r="I8">
-        <v>0.7297778654637742</v>
+        <v>0.6102227246973723</v>
       </c>
       <c r="J8">
-        <v>0.7297778654637743</v>
+        <v>0.6102227246973724</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.047136333333333</v>
+        <v>7.805874333333333</v>
       </c>
       <c r="N8">
-        <v>21.141409</v>
+        <v>23.417623</v>
       </c>
       <c r="O8">
-        <v>0.666962110559048</v>
+        <v>0.4808527464653325</v>
       </c>
       <c r="P8">
-        <v>0.666962110559048</v>
+        <v>0.4808527464653325</v>
       </c>
       <c r="Q8">
-        <v>7.646312052938667</v>
+        <v>4.909790877342222</v>
       </c>
       <c r="R8">
-        <v>68.816808476448</v>
+        <v>44.18811789607999</v>
       </c>
       <c r="S8">
-        <v>0.4867341853889958</v>
+        <v>0.2934272731262899</v>
       </c>
       <c r="T8">
-        <v>0.4867341853889959</v>
+        <v>0.29342727312629</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.085024</v>
+        <v>0.6289866666666667</v>
       </c>
       <c r="H9">
-        <v>3.255072</v>
+        <v>1.88696</v>
       </c>
       <c r="I9">
-        <v>0.7297778654637742</v>
+        <v>0.6102227246973723</v>
       </c>
       <c r="J9">
-        <v>0.7297778654637743</v>
+        <v>0.6102227246973724</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1398853333333333</v>
+        <v>0.6105033333333334</v>
       </c>
       <c r="N9">
-        <v>0.419656</v>
+        <v>1.83151</v>
       </c>
       <c r="O9">
-        <v>0.0132391673359504</v>
+        <v>0.03760785685544264</v>
       </c>
       <c r="P9">
-        <v>0.0132391673359504</v>
+        <v>0.03760785685544264</v>
       </c>
       <c r="Q9">
-        <v>0.1517789439146667</v>
+        <v>0.3839984566222223</v>
       </c>
       <c r="R9">
-        <v>1.366010495232</v>
+        <v>3.4559861096</v>
       </c>
       <c r="S9">
-        <v>0.009661651278947605</v>
+        <v>0.02294916888035696</v>
       </c>
       <c r="T9">
-        <v>0.009661651278947608</v>
+        <v>0.02294916888035696</v>
       </c>
     </row>
   </sheetData>
